--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3111125.893405143</v>
+        <v>3108581.671469117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>32.82517431440864</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>37.11181591693564</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>8.378707707886427</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.4022924851448</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>59.98896936883395</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>49.28585145925035</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>169.9713370172095</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>110.8463721602152</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>104.7708930186218</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>69.98883609897197</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>103.0447034579392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>151.1903643998905</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>264.8955810457978</v>
       </c>
       <c r="C8" t="n">
-        <v>183.4925836889047</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787265</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,16 +1218,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>52.46715756762938</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>25.42862793155182</v>
@@ -1269,7 +1269,7 @@
         <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>93.94433994838161</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>196.2530919531137</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>47.9077574579623</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183125</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>8.168913835720309</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>106.9094576655913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>168.9997448001924</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>132.5039425933943</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>21.35866177150499</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>114.6638016462585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>6.434538210426277</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>74.20064764874441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.15331591778292</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>90.69284018412959</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.85094319419976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>172.7365230047954</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="F2" t="n">
-        <v>364.3172778831071</v>
+        <v>192.4575684550919</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>179.2274338792757</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652805</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487955</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="U2" t="n">
-        <v>371.2627786323105</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="V2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323105</v>
+        <v>199.4030692042953</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>254.4015891111996</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198768</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198768</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198768</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V3" t="n">
-        <v>590.3559321007996</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W3" t="n">
-        <v>590.3559321007996</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X3" t="n">
-        <v>400.9361470843146</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="Y3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.6678600779327</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>310.6678600779327</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692154</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638723</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652805</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652805</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652805</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
-        <v>689.5074301109028</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="T4" t="n">
-        <v>689.5074301109028</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="U4" t="n">
-        <v>689.5074301109028</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="V4" t="n">
-        <v>500.0876450944177</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0876450944177</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="X4" t="n">
-        <v>500.0876450944177</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.6678600779327</v>
+        <v>183.9382299012125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1184.35518866705</v>
+        <v>688.929373470462</v>
       </c>
       <c r="C5" t="n">
-        <v>815.3926717266379</v>
+        <v>319.9668565300503</v>
       </c>
       <c r="D5" t="n">
-        <v>457.1269731198874</v>
+        <v>319.9668565300503</v>
       </c>
       <c r="E5" t="n">
-        <v>457.1269731198874</v>
+        <v>148.2786373207477</v>
       </c>
       <c r="F5" t="n">
-        <v>450.1814723706839</v>
+        <v>141.3331365715442</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1079.068705446274</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1079.068705446274</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.460553127927</v>
+        <v>1079.068705446274</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.494520642861</v>
+        <v>1079.068705446274</v>
       </c>
       <c r="Y5" t="n">
-        <v>1184.35518866705</v>
+        <v>688.929373470462</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.5369979221142</v>
+        <v>465.0516662168834</v>
       </c>
       <c r="C6" t="n">
-        <v>625.5369979221142</v>
+        <v>290.5986369357564</v>
       </c>
       <c r="D6" t="n">
-        <v>476.6025882608629</v>
+        <v>290.5986369357564</v>
       </c>
       <c r="E6" t="n">
-        <v>317.3651332554074</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="F6" t="n">
-        <v>170.8305752822924</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72921106255854</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
         <v>33.72921106255854</v>
@@ -4674,22 +4674,22 @@
         <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1437.480550781698</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1209.364133912669</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1209.364133912669</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="W6" t="n">
-        <v>1209.364133912669</v>
+        <v>1048.878802207438</v>
       </c>
       <c r="X6" t="n">
-        <v>1001.512633707136</v>
+        <v>841.0273020019054</v>
       </c>
       <c r="Y6" t="n">
-        <v>793.7523349421822</v>
+        <v>633.2670032369515</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.4684350707689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="C7" t="n">
-        <v>328.532252142862</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>1003.995038092962</v>
+        <v>661.9238182098447</v>
       </c>
       <c r="V7" t="n">
-        <v>899.9094790445388</v>
+        <v>407.2393300039579</v>
       </c>
       <c r="W7" t="n">
-        <v>899.9094790445388</v>
+        <v>407.2393300039579</v>
       </c>
       <c r="X7" t="n">
-        <v>899.9094790445388</v>
+        <v>254.5217902060886</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.1168999010087</v>
+        <v>33.72921106255854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1441.038154340981</v>
+        <v>370.2332370816103</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.692110210775</v>
+        <v>370.2332370816103</v>
       </c>
       <c r="D8" t="n">
-        <v>1255.692110210775</v>
+        <v>370.2332370816103</v>
       </c>
       <c r="E8" t="n">
-        <v>1255.692110210775</v>
+        <v>370.2332370816103</v>
       </c>
       <c r="F8" t="n">
-        <v>844.7062054211672</v>
+        <v>363.2877363324068</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7160153974696</v>
+        <v>351.3379503491134</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759745</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3555465276183</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872707</v>
+        <v>156.8927045872706</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158997</v>
+        <v>376.2952505158996</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985276</v>
+        <v>685.3852714985278</v>
       </c>
       <c r="M8" t="n">
         <v>1060.976912556943</v>
@@ -4817,7 +4817,7 @@
         <v>1447.259827415488</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.68056897511</v>
+        <v>1798.680568975109</v>
       </c>
       <c r="P8" t="n">
         <v>2064.109040631088</v>
@@ -4832,22 +4832,22 @@
         <v>2217.777326380915</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380915</v>
+        <v>2007.78217248993</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380915</v>
+        <v>1754.17827657427</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380915</v>
+        <v>1754.17827657427</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.777326380915</v>
+        <v>1401.409621304156</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.777326380915</v>
+        <v>1027.943863043076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1827.637994405103</v>
+        <v>637.8045310672646</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.298865693644</v>
+        <v>583.2797313720807</v>
       </c>
       <c r="C9" t="n">
-        <v>756.845836412517</v>
+        <v>408.8267020909537</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>259.8922924297025</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>206.8951635735112</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>206.8951635735112</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>70.04102928676156</v>
       </c>
       <c r="H9" t="n">
         <v>70.04102928676156</v>
       </c>
       <c r="I9" t="n">
-        <v>44.3555465276183</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="J9" t="n">
-        <v>92.5640599542408</v>
+        <v>217.3941849412456</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643081</v>
+        <v>377.9450376513129</v>
       </c>
       <c r="L9" t="n">
-        <v>802.0148009435845</v>
+        <v>926.8449259305894</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.35017459369</v>
+        <v>1252.180299580695</v>
       </c>
       <c r="N9" t="n">
-        <v>1475.704852434444</v>
+        <v>1600.534977421449</v>
       </c>
       <c r="O9" t="n">
-        <v>1772.161530849596</v>
+        <v>1896.991655836601</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855271</v>
+        <v>2115.591210103929</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380915</v>
+        <v>2211.800026629573</v>
       </c>
       <c r="R9" t="n">
         <v>2217.777326380915</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472981</v>
+        <v>2079.218696472982</v>
       </c>
       <c r="T9" t="n">
         <v>1884.596484064438</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322579</v>
+        <v>1656.49633232258</v>
       </c>
       <c r="V9" t="n">
-        <v>1561.603059647446</v>
+        <v>1421.344224090837</v>
       </c>
       <c r="W9" t="n">
-        <v>1307.365702919245</v>
+        <v>1167.106867362636</v>
       </c>
       <c r="X9" t="n">
-        <v>1099.514202713712</v>
+        <v>959.2553671571027</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.514202713712</v>
+        <v>751.4950683921488</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.3259130842182</v>
+        <v>473.1139807553005</v>
       </c>
       <c r="C10" t="n">
-        <v>657.3897301563113</v>
+        <v>304.1777978273936</v>
       </c>
       <c r="D10" t="n">
-        <v>507.2730907439756</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="E10" t="n">
-        <v>359.3599971615824</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="F10" t="n">
-        <v>212.4700496636721</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="G10" t="n">
-        <v>44.3555465276183</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="H10" t="n">
-        <v>44.3555465276183</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="I10" t="n">
-        <v>44.3555465276183</v>
+        <v>44.35554652761831</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692026</v>
+        <v>60.95254262692028</v>
       </c>
       <c r="K10" t="n">
         <v>218.063342327403</v>
@@ -4984,28 +4984,28 @@
         <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155967</v>
+        <v>1396.807701620021</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155967</v>
+        <v>1396.807701620021</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155967</v>
+        <v>1198.572255202735</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155967</v>
+        <v>909.4469337914271</v>
       </c>
       <c r="V10" t="n">
-        <v>1505.148182155967</v>
+        <v>654.7624455855403</v>
       </c>
       <c r="W10" t="n">
-        <v>1456.756507956005</v>
+        <v>654.7624455855403</v>
       </c>
       <c r="X10" t="n">
-        <v>1228.766957057988</v>
+        <v>654.7624455855403</v>
       </c>
       <c r="Y10" t="n">
-        <v>1007.974377914458</v>
+        <v>654.7624455855403</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.21291626627</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.122646505557</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,7 +5285,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979686</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5476,10 +5476,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
         <v>913.2907898186995</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,58 +5738,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1063.573343591573</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1466.014387565343</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1245.221808421813</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.095357967755</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.493892990697</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.418666334894</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.734178129007</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.317008092047</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3274571940295</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,28 +6698,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1673476194629</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>746.1673476194629</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>598.2542540370698</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>451.3643065391594</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>284.1682072540394</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4563760962374</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>414.4022433768874</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>267.5122958789771</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
         <v>175.9033664000583</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>783.5579673960132</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,16 +7643,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,19 +7728,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2272.48174721178</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2052.880282234721</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1763.805055578919</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1509.120567373032</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1219.703397336071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>991.7138464380538</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>82.97369176944322</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>98.860651885941</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>289.5928408581818</v>
+        <v>289.5928408581819</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>132.1287118569155</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688311</v>
+        <v>36.36290307339006</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>217.5407415533168</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60.33736343303656</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>117.1847295890517</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.74287850523353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>264.8258126177391</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>66.36248435538609</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>139.9994244361429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>33.11252040078261</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>74.83129810813925</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.98103698773754</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>8.289762996849163</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26314,10 @@
         <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287554</v>
@@ -26326,34 +26326,34 @@
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296905</v>
+        <v>138712.7919296906</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745752</v>
+        <v>589678.7921745748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153564</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484297</v>
+        <v>33617.87336484302</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167275</v>
+        <v>154073.8510167273</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632063</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
@@ -26433,7 +26433,7 @@
         <v>14216.75207685503</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685507</v>
@@ -26442,19 +26442,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="O4" t="n">
         <v>14216.75207685507</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208100.3309644173</v>
+        <v>-208100.3309644171</v>
       </c>
       <c r="C6" t="n">
-        <v>174422.4452586657</v>
+        <v>174422.4452586655</v>
       </c>
       <c r="D6" t="n">
-        <v>323145.1919722456</v>
+        <v>323145.1919722457</v>
       </c>
       <c r="E6" t="n">
-        <v>1235.200653418025</v>
+        <v>1200.46272798271</v>
       </c>
       <c r="F6" t="n">
-        <v>590913.9928279934</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="G6" t="n">
-        <v>590913.9928279931</v>
+        <v>590879.2549025572</v>
       </c>
       <c r="H6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025575</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279932</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="J6" t="n">
-        <v>541849.0480994487</v>
+        <v>541814.3101740133</v>
       </c>
       <c r="K6" t="n">
-        <v>530666.8332364577</v>
+        <v>530632.095311022</v>
       </c>
       <c r="L6" t="n">
-        <v>557296.1194631503</v>
+        <v>557261.3815377147</v>
       </c>
       <c r="M6" t="n">
-        <v>436840.1418112658</v>
+        <v>436805.4038858303</v>
       </c>
       <c r="N6" t="n">
-        <v>590913.9928279932</v>
+        <v>590879.2549025576</v>
       </c>
       <c r="O6" t="n">
-        <v>590913.9928279934</v>
+        <v>590879.2549025576</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025576</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952287</v>
+        <v>554.4443315952288</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
         <v>113.7908296814352</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626288</v>
+        <v>504.2037141626286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132469</v>
+        <v>132.8291933132471</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044199</v>
+        <v>618.2639565044193</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132469</v>
+        <v>132.8291933132471</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044199</v>
+        <v>618.2639565044193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132469</v>
+        <v>132.8291933132471</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044199</v>
+        <v>618.2639565044193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>380.2726589156494</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>279.7820101892867</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988665</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871021</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>224.4218794415388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715735</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.2804032921595</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>146.7912864266623</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>237.2371468773406</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577467</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>211.9590330550522</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>258.8847285182538</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>33.85559031833734</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>88.89164228920635</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>181.7061470619476</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>149.0929398658888</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>74.51929098914661</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>117.8382606176828</v>
       </c>
       <c r="C8" t="n">
-        <v>181.7803080821028</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787265</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>105.1779228877716</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719214</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>138.8562472010437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
         <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>25.03720666362437</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>238.6152408786287</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>382.1329742631536</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>186.6878763515707</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>351.5042614518788</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,22 +34448,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>279.0775374915855</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933416</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.6954681076995</v>
+        <v>174.7865034481083</v>
       </c>
       <c r="K9" t="n">
         <v>162.1725784950175</v>
       </c>
       <c r="L9" t="n">
-        <v>554.4443315952287</v>
+        <v>554.4443315952288</v>
       </c>
       <c r="M9" t="n">
         <v>328.6215895455613</v>
@@ -35267,13 +35267,13 @@
         <v>299.4511903183354</v>
       </c>
       <c r="P9" t="n">
-        <v>352.9363424299746</v>
+        <v>220.8076305730592</v>
       </c>
       <c r="Q9" t="n">
         <v>97.18062275317598</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.037676516506958</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>248.1585668488234</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
-        <v>224.3390294385614</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>44.0916319071262</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>208.9080170074344</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>136.4812930471411</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
